--- a/medicine/Enfance/Biennale_d'animation_de_Bratislava/Biennale_d'animation_de_Bratislava.xlsx
+++ b/medicine/Enfance/Biennale_d'animation_de_Bratislava/Biennale_d'animation_de_Bratislava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biennale_d%27animation_de_Bratislava</t>
+          <t>Biennale_d'animation_de_Bratislava</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Biennale d'animation de Bratislava (BAB), sous-titre Festival international de films d'animation pour enfants, est une manifestation artistique internationale d'animation qui se tient en octobre, à Bratislava, en Slovaquie, durant les années paires (depuis 2006). Elle a été créée en 1991, et elle rassemble des créateurs et réalisateurs du monde entier, pour des films d'animation qui s'adressent à un jeune public. Elle est organisée par l'International House of Art for Children de Bratislava (Bibiana).
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biennale_d%27animation_de_Bratislava</t>
+          <t>Biennale_d'animation_de_Bratislava</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Klingsor pour l'ensemble d'une œuvre, a été décerné en 1993 au Québécois Frédéric Back, et en 2008 au Français Michel Ocelot.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biennale_d%27animation_de_Bratislava</t>
+          <t>Biennale_d'animation_de_Bratislava</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix Klingsor
-Liste exhaustive.
+          <t>Prix Klingsor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste exhaustive.
 1991 :  Emanuele Luzzati
 1993 :  Frédéric Back
 1995 :  Faith Hubley
@@ -567,9 +586,43 @@
 2016 :  Jannik Hastrup
 2018 :  Michael Dudok de Wit
 2020 :  Konstantin Bronzit
-2022 :  Koji Yamamura
-Médaille d'Honneur Albín Brunovský
-La médaille d'honneur Albín-Brunovský est décernée depuis 1999 ; plusieurs médailles sont attribuées à chaque biennale. 
+2022 :  Koji Yamamura</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biennale_d'animation_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biennale_d%27animation_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médaille d'Honneur Albín Brunovský</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La médaille d'honneur Albín-Brunovský est décernée depuis 1999 ; plusieurs médailles sont attribuées à chaque biennale. 
 1999 :
  Anri Kulev
  Jean-François Laguionie
@@ -602,9 +655,43 @@
  Géza M. Tóth
 2022 :
  Hisko Hulsing
- Eva Gubčová
-Prix Viktor-Kubal
-Le Prix Viktor-Kubal, pour le meilleur film, est attribué depuis 2003.
+ Eva Gubčová</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Biennale_d'animation_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biennale_d%27animation_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix Viktor-Kubal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Prix Viktor-Kubal, pour le meilleur film, est attribué depuis 2003.
 Le pays vainqueur est celui du pays de distribution du film, il ne correspond donc pas toujours à la nationalité des réalisateurs.
 Liste exhaustive. Courts métrages :
 2003 :  Liviusz Gyulai pour Sindbad, bon voyage !
